--- a/planilha/janeiro/Escala ASO1 - Gameleira - 1° Turno - Janeiro.xlsx
+++ b/planilha/janeiro/Escala ASO1 - Gameleira - 1° Turno - Janeiro.xlsx
@@ -94,6 +94,9 @@
     <t>Suellen Lima</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Guilherme Araujo</t>
   </si>
   <si>
@@ -103,10 +106,7 @@
     <t>Renato Ferreira</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20/12/19</t>
+    <t>30/12/19</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -812,19 +812,19 @@
         <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>13</v>
@@ -842,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>13</v>
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>19</v>
@@ -875,10 +875,10 @@
         <v>19</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>13</v>
@@ -945,10 +945,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
@@ -960,7 +960,7 @@
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>13</v>
@@ -972,16 +972,16 @@
         <v>19</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>19</v>
@@ -990,28 +990,28 @@
         <v>19</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>19</v>
@@ -1023,7 +1023,7 @@
         <v>19</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE5" s="5" t="s">
         <v>8</v>
@@ -1090,10 +1090,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>8</v>
@@ -1105,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>13</v>
@@ -1135,16 +1135,16 @@
         <v>19</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>19</v>
@@ -1153,22 +1153,22 @@
         <v>19</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>7</v>
@@ -1229,10 +1229,12 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s"/>
-      <c r="D7" s="5" t="s"/>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1242,60 +1244,66 @@
       <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="5" t="s"/>
-      <c r="J7" s="5" t="s"/>
+      <c r="H7" s="5" t="s"/>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="L7" s="5" t="s"/>
       <c r="M7" s="5" t="s"/>
       <c r="N7" s="5" t="s"/>
-      <c r="O7" s="5" t="s"/>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="P7" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="5" t="s"/>
-      <c r="T7" s="5" t="s"/>
-      <c r="U7" s="5" t="s"/>
+        <v>13</v>
+      </c>
+      <c r="R7" s="5" t="s"/>
+      <c r="S7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="V7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="W7" s="5" t="s"/>
       <c r="X7" s="5" t="s"/>
-      <c r="Y7" s="5" t="s"/>
+      <c r="Y7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Z7" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AC7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD7" s="5" t="s"/>
-      <c r="AE7" s="5" t="s"/>
+      <c r="AC7" s="5" t="s"/>
+      <c r="AD7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AF7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AG7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="AG7" s="5" t="s"/>
       <c r="AH7" s="5" t="n"/>
       <c r="AI7" s="5" t="n"/>
       <c r="AJ7" s="5" t="n"/>
@@ -1343,10 +1351,10 @@
     </row>
     <row customHeight="1" ht="20" r="8" spans="1:48">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s"/>
       <c r="D8" s="3" t="s"/>
@@ -1360,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3" t="s"/>
       <c r="J8" s="4" t="s">
@@ -1370,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M8" s="3" t="s"/>
       <c r="N8" s="3" t="s"/>
@@ -1379,10 +1387,10 @@
         <v>19</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S8" s="3" t="s"/>
       <c r="T8" s="4" t="s">
@@ -1395,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X8" s="3" t="s"/>
       <c r="Y8" s="3" t="s"/>
@@ -1403,13 +1411,13 @@
         <v>19</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD8" s="3" t="s"/>
       <c r="AE8" s="4" t="s">
@@ -1419,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH8" s="3" t="n"/>
       <c r="AI8" s="3" t="n"/>
@@ -1468,13 +1476,13 @@
     </row>
     <row customHeight="1" ht="20" r="9" spans="1:48">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
@@ -1483,7 +1491,7 @@
       <c r="F9" s="5" t="s"/>
       <c r="G9" s="5" t="s"/>
       <c r="H9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
@@ -1493,13 +1501,13 @@
       </c>
       <c r="K9" s="5" t="s"/>
       <c r="L9" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>19</v>
@@ -1507,7 +1515,7 @@
       <c r="P9" s="5" t="s"/>
       <c r="Q9" s="5" t="s"/>
       <c r="R9" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>19</v>
@@ -1520,10 +1528,10 @@
       </c>
       <c r="V9" s="5" t="s"/>
       <c r="W9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>19</v>
@@ -1542,7 +1550,7 @@
       </c>
       <c r="AF9" s="5" t="s"/>
       <c r="AG9" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AH9" s="5" t="n"/>
       <c r="AI9" s="5" t="n"/>
